--- a/Code/Results/Cases/Case_2_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_154/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.076843716430233</v>
+        <v>0.9646773129393296</v>
       </c>
       <c r="C2">
-        <v>0.3276131360037908</v>
+        <v>0.2335068093486257</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04291014790807779</v>
+        <v>0.1166771519514311</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0007974704142707775</v>
+        <v>0.002438830678968888</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1494751535390293</v>
+        <v>0.1888783094692243</v>
       </c>
       <c r="M2">
-        <v>0.3615597558034054</v>
+        <v>0.2188512100700279</v>
       </c>
       <c r="N2">
-        <v>0.8079177025977131</v>
+        <v>1.397437926242375</v>
       </c>
       <c r="O2">
-        <v>1.567498581655229</v>
+        <v>2.820092277855082</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.805863332990327</v>
+        <v>0.8867854317317949</v>
       </c>
       <c r="C3">
-        <v>0.3018200524604993</v>
+        <v>0.2248336650023077</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04420721770579483</v>
+        <v>0.1176737342298653</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008015933119512199</v>
+        <v>0.002441577148969299</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1355028836733609</v>
+        <v>0.1862223997423698</v>
       </c>
       <c r="M3">
-        <v>0.3157435046189292</v>
+        <v>0.2063987760370196</v>
       </c>
       <c r="N3">
-        <v>0.8354799548617464</v>
+        <v>1.410139803999641</v>
       </c>
       <c r="O3">
-        <v>1.506529707216401</v>
+        <v>2.831181935501405</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.640058083611308</v>
+        <v>0.8391672877897918</v>
       </c>
       <c r="C4">
-        <v>0.285953777579536</v>
+        <v>0.219466063207534</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04506071024742564</v>
+        <v>0.118325077472484</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008042084987429196</v>
+        <v>0.002443354212374883</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1270834886637289</v>
+        <v>0.1846825474385696</v>
       </c>
       <c r="M4">
-        <v>0.2877759629523595</v>
+        <v>0.1988285551893441</v>
       </c>
       <c r="N4">
-        <v>0.8535293309332346</v>
+        <v>1.418488560385882</v>
       </c>
       <c r="O4">
-        <v>1.473099274980001</v>
+        <v>2.83987984088958</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.572609290627213</v>
+        <v>0.8198158797700899</v>
       </c>
       <c r="C5">
-        <v>0.2794792364338434</v>
+        <v>0.2172682230444565</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04542262525072083</v>
+        <v>0.1186004339467908</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008052956523816711</v>
+        <v>0.002444101260552418</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1236900076526766</v>
+        <v>0.1840779554454954</v>
       </c>
       <c r="M5">
-        <v>0.2764148759916623</v>
+        <v>0.1957628285134589</v>
       </c>
       <c r="N5">
-        <v>0.8611602159672174</v>
+        <v>1.422029092433178</v>
       </c>
       <c r="O5">
-        <v>1.460427435994973</v>
+        <v>2.843898766760361</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.561415846741966</v>
+        <v>0.8166058498846667</v>
       </c>
       <c r="C6">
-        <v>0.2784035626432626</v>
+        <v>0.2169026429942136</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04548356617302307</v>
+        <v>0.1186467567051839</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008054774797182528</v>
+        <v>0.002444226691133695</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1231287121609128</v>
+        <v>0.1839789487872281</v>
       </c>
       <c r="M6">
-        <v>0.2745303965657087</v>
+        <v>0.1952549319681793</v>
       </c>
       <c r="N6">
-        <v>0.862443752383335</v>
+        <v>1.422625354046126</v>
       </c>
       <c r="O6">
-        <v>1.4583791702361</v>
+        <v>2.844594747939453</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.639148001708634</v>
+        <v>0.8389060903420784</v>
       </c>
       <c r="C7">
-        <v>0.2858664976862002</v>
+        <v>0.2194364647055949</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04506553434609062</v>
+        <v>0.1183287508087973</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008042230731597269</v>
+        <v>0.002443364194836452</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1270375745974732</v>
+        <v>0.1846743008620848</v>
       </c>
       <c r="M7">
-        <v>0.2876226047116219</v>
+        <v>0.1987871317445169</v>
       </c>
       <c r="N7">
-        <v>0.8536311374165493</v>
+        <v>1.418535748939171</v>
       </c>
       <c r="O7">
-        <v>1.472924597749284</v>
+        <v>2.83993212112847</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.983272868436757</v>
+        <v>0.9377777141388037</v>
       </c>
       <c r="C8">
-        <v>0.3187247627156324</v>
+        <v>0.2305251529322163</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04334537915267767</v>
+        <v>0.1170125954339136</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0007988748584605127</v>
+        <v>0.002439758873974304</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1446227404211626</v>
+        <v>0.1879437205041441</v>
       </c>
       <c r="M8">
-        <v>0.3457250257218547</v>
+        <v>0.2145420208262507</v>
       </c>
       <c r="N8">
-        <v>0.8171828044264657</v>
+        <v>1.401703496057756</v>
       </c>
       <c r="O8">
-        <v>1.545610920081884</v>
+        <v>2.823523663841684</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.664021720386529</v>
+        <v>1.133274078586567</v>
       </c>
       <c r="C9">
-        <v>0.383007392856527</v>
+        <v>0.251930146560511</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04043654615449999</v>
+        <v>0.1147439889502682</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007890323640998928</v>
+        <v>0.002433405563133223</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1805020463751177</v>
+        <v>0.1950742716254013</v>
       </c>
       <c r="M9">
-        <v>0.4612225339471578</v>
+        <v>0.246030998258064</v>
       </c>
       <c r="N9">
-        <v>0.7550002363155173</v>
+        <v>1.373052834495418</v>
       </c>
       <c r="O9">
-        <v>1.722588738117111</v>
+        <v>2.806358946201811</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.16981178680129</v>
+        <v>1.277848428145433</v>
       </c>
       <c r="C10">
-        <v>0.4302678212620776</v>
+        <v>0.2674444164516956</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03859901658189724</v>
+        <v>0.1132668919110014</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007821665586412356</v>
+        <v>0.002429170355258515</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2079045954373697</v>
+        <v>0.2007497736970123</v>
       </c>
       <c r="M10">
-        <v>0.5474210758408162</v>
+        <v>0.2695218570393507</v>
       </c>
       <c r="N10">
-        <v>0.7155054303351278</v>
+        <v>1.354653180082408</v>
       </c>
       <c r="O10">
-        <v>1.877558887900904</v>
+        <v>2.802939134414288</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.401625992098957</v>
+        <v>1.343816721873566</v>
       </c>
       <c r="C11">
-        <v>0.4518056782338533</v>
+        <v>0.2744553074152805</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03783197226184321</v>
+        <v>0.1126359362861873</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007791158850280948</v>
+        <v>0.002427336650809451</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.220642786411247</v>
+        <v>0.2034262046748552</v>
       </c>
       <c r="M11">
-        <v>0.5870210306750678</v>
+        <v>0.2802846205498071</v>
       </c>
       <c r="N11">
-        <v>0.6990077872222571</v>
+        <v>1.346856860204461</v>
       </c>
       <c r="O11">
-        <v>1.954419902477866</v>
+        <v>2.803387872789699</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.489699924790841</v>
+        <v>1.368825126872309</v>
       </c>
       <c r="C12">
-        <v>0.4599698384687088</v>
+        <v>0.2771033345299259</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03755175701368962</v>
+        <v>0.1124028911614854</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.000777970537078645</v>
+        <v>0.002426655565689257</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2255096742132565</v>
+        <v>0.2044532610834864</v>
       </c>
       <c r="M12">
-        <v>0.6020806305636768</v>
+        <v>0.2843710716614893</v>
       </c>
       <c r="N12">
-        <v>0.6929831226079415</v>
+        <v>1.343987024804377</v>
       </c>
       <c r="O12">
-        <v>1.984525409936538</v>
+        <v>2.803846672986367</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.470717975736875</v>
+        <v>1.363437909266622</v>
       </c>
       <c r="C13">
-        <v>0.4582111289546447</v>
+        <v>0.2765333411764459</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03761164488107482</v>
+        <v>0.1124528200497297</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007782167784716187</v>
+        <v>0.002426801658928333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2244595140556243</v>
+        <v>0.2042314643520768</v>
       </c>
       <c r="M13">
-        <v>0.5988342945000795</v>
+        <v>0.2834905029294674</v>
       </c>
       <c r="N13">
-        <v>0.6942705495214412</v>
+        <v>1.344601428390185</v>
       </c>
       <c r="O13">
-        <v>1.977995761138857</v>
+        <v>2.803735004306816</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.40886580156257</v>
+        <v>1.345873631336474</v>
       </c>
       <c r="C14">
-        <v>0.4524771673309544</v>
+        <v>0.2746733001869472</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03780871134950115</v>
+        <v>0.1126166456506148</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007790214619746747</v>
+        <v>0.00242728035146049</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2210422981818567</v>
+        <v>0.2035104299787207</v>
       </c>
       <c r="M14">
-        <v>0.5882586620393084</v>
+        <v>0.2806205994949309</v>
       </c>
       <c r="N14">
-        <v>0.6985076041534768</v>
+        <v>1.346619104713618</v>
       </c>
       <c r="O14">
-        <v>1.956876152867949</v>
+        <v>2.803419825465312</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.371018764401924</v>
+        <v>1.335118567941947</v>
       </c>
       <c r="C15">
-        <v>0.4489661066335486</v>
+        <v>0.273533075786645</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03793076543163565</v>
+        <v>0.1127177595683477</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007795156225911789</v>
+        <v>0.002427575294493778</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2189549060999525</v>
+        <v>0.2030705385749059</v>
       </c>
       <c r="M15">
-        <v>0.5817893648014234</v>
+        <v>0.2788641048298999</v>
       </c>
       <c r="N15">
-        <v>0.7011322690918007</v>
+        <v>1.347865727369467</v>
       </c>
       <c r="O15">
-        <v>1.944072624372382</v>
+        <v>2.803264408010079</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.154700504764605</v>
+        <v>1.273541179529786</v>
       </c>
       <c r="C16">
-        <v>0.4288612746545084</v>
+        <v>0.2669852879763823</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03865055946113571</v>
+        <v>0.1133089502392135</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007823673410127015</v>
+        <v>0.002429292056483663</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2070779467285604</v>
+        <v>0.2005767618066443</v>
       </c>
       <c r="M16">
-        <v>0.5448416150731745</v>
+        <v>0.2688200107935401</v>
       </c>
       <c r="N16">
-        <v>0.7166141040639218</v>
+        <v>1.355174229674901</v>
       </c>
       <c r="O16">
-        <v>1.872671005598619</v>
+        <v>2.802950197114995</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.022467954619231</v>
+        <v>1.235815983464761</v>
       </c>
       <c r="C17">
-        <v>0.4165393727386117</v>
+        <v>0.2629563898316292</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03911000593281777</v>
+        <v>0.1136821167447559</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007841349857743581</v>
+        <v>0.002430368986956316</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1998644056024972</v>
+        <v>0.1990711044923614</v>
       </c>
       <c r="M17">
-        <v>0.522280324209369</v>
+        <v>0.2626777773741722</v>
       </c>
       <c r="N17">
-        <v>0.7264957738371081</v>
+        <v>1.359804682265533</v>
       </c>
       <c r="O17">
-        <v>1.830556800139817</v>
+        <v>2.803271275532779</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.946571178246415</v>
+        <v>1.214136411564198</v>
       </c>
       <c r="C18">
-        <v>0.4094556241440159</v>
+        <v>0.2606346936558452</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03938072668833392</v>
+        <v>0.1139006103342819</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007851585592682555</v>
+        <v>0.002430997158295999</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1957407725708151</v>
+        <v>0.1982139993191083</v>
       </c>
       <c r="M18">
-        <v>0.5093396417498965</v>
+        <v>0.2591521539384658</v>
       </c>
       <c r="N18">
-        <v>0.7323169635550357</v>
+        <v>1.3625220050492</v>
       </c>
       <c r="O18">
-        <v>1.806927428671003</v>
+        <v>2.803644579461888</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.920900055105506</v>
+        <v>1.206799375051162</v>
       </c>
       <c r="C19">
-        <v>0.4070577100448531</v>
+        <v>0.2598478591373521</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0394734872440079</v>
+        <v>0.1139752514225503</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007855063203802663</v>
+        <v>0.002431211350879032</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1943488272108596</v>
+        <v>0.1979253300763446</v>
       </c>
       <c r="M19">
-        <v>0.5049640884757949</v>
+        <v>0.2579596856226942</v>
       </c>
       <c r="N19">
-        <v>0.7343112011917086</v>
+        <v>1.363451321428919</v>
       </c>
       <c r="O19">
-        <v>1.799026402055262</v>
+        <v>2.803803351360216</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.036527490419758</v>
+        <v>1.239829941196206</v>
       </c>
       <c r="C20">
-        <v>0.4178506812724834</v>
+        <v>0.2633857273017952</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03906042611369553</v>
+        <v>0.1136419933032196</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007839461098006484</v>
+        <v>0.002430253440962505</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2006296419412337</v>
+        <v>0.1992304626299983</v>
       </c>
       <c r="M20">
-        <v>0.5246782315074441</v>
+        <v>0.2633308820888587</v>
       </c>
       <c r="N20">
-        <v>0.7254295407037716</v>
+        <v>1.359306173309896</v>
       </c>
       <c r="O20">
-        <v>1.83497789958281</v>
+        <v>2.803217569252354</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.427025033402174</v>
+        <v>1.351031944962244</v>
       </c>
       <c r="C21">
-        <v>0.4541611247681487</v>
+        <v>0.2752198262032266</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03775054717024329</v>
+        <v>0.1125683664818391</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007787848435746339</v>
+        <v>0.002427139387628537</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2220448111814761</v>
+        <v>0.2037218479505611</v>
       </c>
       <c r="M21">
-        <v>0.5913631774289954</v>
+        <v>0.2814632674477195</v>
       </c>
       <c r="N21">
-        <v>0.6972569411459801</v>
+        <v>1.346024226628728</v>
       </c>
       <c r="O21">
-        <v>1.963051649419128</v>
+        <v>2.803504556125148</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.683955693620192</v>
+        <v>1.423869449763401</v>
       </c>
       <c r="C22">
-        <v>0.4779415541070762</v>
+        <v>0.2829141305697647</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03695437280661729</v>
+        <v>0.1119009819407486</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007754689307387067</v>
+        <v>0.002425181659919049</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2362948061307151</v>
+        <v>0.2067361823445566</v>
       </c>
       <c r="M22">
-        <v>0.6353227033471285</v>
+        <v>0.2933768415748048</v>
       </c>
       <c r="N22">
-        <v>0.680148100164061</v>
+        <v>1.337824338327344</v>
       </c>
       <c r="O22">
-        <v>2.052627520319078</v>
+        <v>2.805376185495902</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.546654836075504</v>
+        <v>1.384980411943559</v>
       </c>
       <c r="C23">
-        <v>0.4652440215853346</v>
+        <v>0.2788112383298937</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03737370485337355</v>
+        <v>0.1122540428938752</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007772336528385868</v>
+        <v>0.002426219466156522</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2286646779836587</v>
+        <v>0.2051201693937372</v>
       </c>
       <c r="M23">
-        <v>0.6118232999600295</v>
+        <v>0.2870126421134387</v>
       </c>
       <c r="N23">
-        <v>0.6891561423812007</v>
+        <v>1.342156809414824</v>
       </c>
       <c r="O23">
-        <v>2.004252183385745</v>
+        <v>2.80422295875286</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.030170786617646</v>
+        <v>1.238015202324277</v>
       </c>
       <c r="C24">
-        <v>0.4172578380192533</v>
+        <v>0.2631916407327424</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03908282068421087</v>
+        <v>0.1136601207906116</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007840314777426236</v>
+        <v>0.002430305651385992</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2002836056079786</v>
+        <v>0.1991583902819798</v>
       </c>
       <c r="M24">
-        <v>0.523594044461646</v>
+        <v>0.2630355959008597</v>
       </c>
       <c r="N24">
-        <v>0.7259111492214103</v>
+        <v>1.359531377214225</v>
       </c>
       <c r="O24">
-        <v>1.832977312042146</v>
+        <v>2.803241262079268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.479026021117477</v>
+        <v>1.080218769427063</v>
       </c>
       <c r="C25">
-        <v>0.365621304992942</v>
+        <v>0.2461764113660934</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04117209656187537</v>
+        <v>0.115324346733944</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007916287183143671</v>
+        <v>0.002435048025260371</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1706273830446463</v>
+        <v>0.1930684540135132</v>
       </c>
       <c r="M25">
-        <v>0.4297716771961007</v>
+        <v>0.23744946110142</v>
       </c>
       <c r="N25">
-        <v>0.7707752949428439</v>
+        <v>1.380337790160809</v>
       </c>
       <c r="O25">
-        <v>1.670632895147889</v>
+        <v>2.809391237680074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_154/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9646773129393296</v>
+        <v>2.076843716430346</v>
       </c>
       <c r="C2">
-        <v>0.2335068093486257</v>
+        <v>0.3276131360035492</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1166771519514311</v>
+        <v>0.04291014790805381</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002438830678968888</v>
+        <v>0.0007974704143068914</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1888783094692243</v>
+        <v>0.1494751535391003</v>
       </c>
       <c r="M2">
-        <v>0.2188512100700279</v>
+        <v>0.3615597558034196</v>
       </c>
       <c r="N2">
-        <v>1.397437926242375</v>
+        <v>0.8079177025976918</v>
       </c>
       <c r="O2">
-        <v>2.820092277855082</v>
+        <v>1.567498581655258</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8867854317317949</v>
+        <v>1.805863332990299</v>
       </c>
       <c r="C3">
-        <v>0.2248336650023077</v>
+        <v>0.3018200524604993</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1176737342298653</v>
+        <v>0.04420721770579306</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002441577148969299</v>
+        <v>0.000801593312009814</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1862223997423698</v>
+        <v>0.1355028836733752</v>
       </c>
       <c r="M3">
-        <v>0.2063987760370196</v>
+        <v>0.3157435046189363</v>
       </c>
       <c r="N3">
-        <v>1.410139803999641</v>
+        <v>0.8354799548617393</v>
       </c>
       <c r="O3">
-        <v>2.831181935501405</v>
+        <v>1.506529707216401</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8391672877897918</v>
+        <v>1.640058083611308</v>
       </c>
       <c r="C4">
-        <v>0.219466063207534</v>
+        <v>0.2859537775793086</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.118325077472484</v>
+        <v>0.04506071024742697</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002443354212374883</v>
+        <v>0.0008042084988017059</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1846825474385696</v>
+        <v>0.1270834886638994</v>
       </c>
       <c r="M4">
-        <v>0.1988285551893441</v>
+        <v>0.2877759629523808</v>
       </c>
       <c r="N4">
-        <v>1.418488560385882</v>
+        <v>0.8535293309332488</v>
       </c>
       <c r="O4">
-        <v>2.83987984088958</v>
+        <v>1.473099274980029</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8198158797700899</v>
+        <v>1.572609290627327</v>
       </c>
       <c r="C5">
-        <v>0.2172682230444565</v>
+        <v>0.2794792364340992</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1186004339467908</v>
+        <v>0.0454226252507226</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002444101260552418</v>
+        <v>0.000805295652382431</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1840779554454954</v>
+        <v>0.1236900076527618</v>
       </c>
       <c r="M5">
-        <v>0.1957628285134589</v>
+        <v>0.2764148759916623</v>
       </c>
       <c r="N5">
-        <v>1.422029092433178</v>
+        <v>0.8611602159672316</v>
       </c>
       <c r="O5">
-        <v>2.843898766760361</v>
+        <v>1.460427435994973</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8166058498846667</v>
+        <v>1.561415846742221</v>
       </c>
       <c r="C6">
-        <v>0.2169026429942136</v>
+        <v>0.2784035626437316</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1186467567051839</v>
+        <v>0.04548356617303861</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002444226691133695</v>
+        <v>0.0008054774797186526</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1839789487872281</v>
+        <v>0.1231287121609199</v>
       </c>
       <c r="M6">
-        <v>0.1952549319681793</v>
+        <v>0.2745303965657087</v>
       </c>
       <c r="N6">
-        <v>1.422625354046126</v>
+        <v>0.8624437523834061</v>
       </c>
       <c r="O6">
-        <v>2.844594747939453</v>
+        <v>1.458379170236185</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8389060903420784</v>
+        <v>1.639148001708548</v>
       </c>
       <c r="C7">
-        <v>0.2194364647055949</v>
+        <v>0.2858664976859728</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1183287508087973</v>
+        <v>0.04506553434606797</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002443364194836452</v>
+        <v>0.0008042230731034313</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1846743008620848</v>
+        <v>0.1270375745974306</v>
       </c>
       <c r="M7">
-        <v>0.1987871317445169</v>
+        <v>0.2876226047116219</v>
       </c>
       <c r="N7">
-        <v>1.418535748939171</v>
+        <v>0.8536311374164924</v>
       </c>
       <c r="O7">
-        <v>2.83993212112847</v>
+        <v>1.472924597749341</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9377777141388037</v>
+        <v>1.983272868436984</v>
       </c>
       <c r="C8">
-        <v>0.2305251529322163</v>
+        <v>0.318724762715533</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1170125954339136</v>
+        <v>0.04334537915268832</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002439758873974304</v>
+        <v>0.000798874858458678</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1879437205041441</v>
+        <v>0.1446227404211911</v>
       </c>
       <c r="M8">
-        <v>0.2145420208262507</v>
+        <v>0.3457250257218405</v>
       </c>
       <c r="N8">
-        <v>1.401703496057756</v>
+        <v>0.8171828044264657</v>
       </c>
       <c r="O8">
-        <v>2.823523663841684</v>
+        <v>1.545610920081856</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.133274078586567</v>
+        <v>2.664021720386529</v>
       </c>
       <c r="C9">
-        <v>0.251930146560511</v>
+        <v>0.3830073928567401</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1147439889502682</v>
+        <v>0.0404365461544689</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002433405563133223</v>
+        <v>0.0007890323640991319</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1950742716254013</v>
+        <v>0.1805020463751177</v>
       </c>
       <c r="M9">
-        <v>0.246030998258064</v>
+        <v>0.4612225339471649</v>
       </c>
       <c r="N9">
-        <v>1.373052834495418</v>
+        <v>0.755000236315567</v>
       </c>
       <c r="O9">
-        <v>2.806358946201811</v>
+        <v>1.722588738117167</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.277848428145433</v>
+        <v>3.169811786801176</v>
       </c>
       <c r="C10">
-        <v>0.2674444164516956</v>
+        <v>0.4302678212619639</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1132668919110014</v>
+        <v>0.03859901658188125</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002429170355258515</v>
+        <v>0.0007821665586379955</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2007497736970123</v>
+        <v>0.2079045954374124</v>
       </c>
       <c r="M10">
-        <v>0.2695218570393507</v>
+        <v>0.5474210758408162</v>
       </c>
       <c r="N10">
-        <v>1.354653180082408</v>
+        <v>0.7155054303351065</v>
       </c>
       <c r="O10">
-        <v>2.802939134414288</v>
+        <v>1.877558887900989</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.343816721873566</v>
+        <v>3.401625992098957</v>
       </c>
       <c r="C11">
-        <v>0.2744553074152805</v>
+        <v>0.4518056782336828</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1126359362861873</v>
+        <v>0.03783197226186896</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002427336650809451</v>
+        <v>0.0007791158850013997</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2034262046748552</v>
+        <v>0.2206427864113039</v>
       </c>
       <c r="M11">
-        <v>0.2802846205498071</v>
+        <v>0.5870210306750678</v>
       </c>
       <c r="N11">
-        <v>1.346856860204461</v>
+        <v>0.6990077872222571</v>
       </c>
       <c r="O11">
-        <v>2.803387872789699</v>
+        <v>1.954419902477952</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.368825126872309</v>
+        <v>3.489699924790898</v>
       </c>
       <c r="C12">
-        <v>0.2771033345299259</v>
+        <v>0.4599698384683677</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1124028911614854</v>
+        <v>0.03755175701367452</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002426655565689257</v>
+        <v>0.0007779705370793422</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2044532610834864</v>
+        <v>0.2255096742131997</v>
       </c>
       <c r="M12">
-        <v>0.2843710716614893</v>
+        <v>0.6020806305636697</v>
       </c>
       <c r="N12">
-        <v>1.343987024804377</v>
+        <v>0.6929831226079273</v>
       </c>
       <c r="O12">
-        <v>2.803846672986367</v>
+        <v>1.984525409936566</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.363437909266622</v>
+        <v>3.470717975736875</v>
       </c>
       <c r="C13">
-        <v>0.2765333411764459</v>
+        <v>0.4582111289547584</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1124528200497297</v>
+        <v>0.0376116448810464</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002426801658928333</v>
+        <v>0.0007782167784711171</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2042314643520768</v>
+        <v>0.2244595140555958</v>
       </c>
       <c r="M13">
-        <v>0.2834905029294674</v>
+        <v>0.5988342945000582</v>
       </c>
       <c r="N13">
-        <v>1.344601428390185</v>
+        <v>0.6942705495214199</v>
       </c>
       <c r="O13">
-        <v>2.803735004306816</v>
+        <v>1.977995761138772</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.345873631336474</v>
+        <v>3.40886580156274</v>
       </c>
       <c r="C14">
-        <v>0.2746733001869472</v>
+        <v>0.4524771673312387</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1126166456506148</v>
+        <v>0.03780871134948516</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.00242728035146049</v>
+        <v>0.0007790214619742141</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2035104299787207</v>
+        <v>0.2210422981818283</v>
       </c>
       <c r="M14">
-        <v>0.2806205994949309</v>
+        <v>0.5882586620393013</v>
       </c>
       <c r="N14">
-        <v>1.346619104713618</v>
+        <v>0.6985076041534697</v>
       </c>
       <c r="O14">
-        <v>2.803419825465312</v>
+        <v>1.956876152867949</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.335118567941947</v>
+        <v>3.371018764401697</v>
       </c>
       <c r="C15">
-        <v>0.273533075786645</v>
+        <v>0.4489661066334349</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1127177595683477</v>
+        <v>0.03793076543164986</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002427575294493778</v>
+        <v>0.0007795156226198652</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2030705385749059</v>
+        <v>0.2189549060999951</v>
       </c>
       <c r="M15">
-        <v>0.2788641048298999</v>
+        <v>0.5817893648014447</v>
       </c>
       <c r="N15">
-        <v>1.347865727369467</v>
+        <v>0.7011322690917368</v>
       </c>
       <c r="O15">
-        <v>2.803264408010079</v>
+        <v>1.944072624372325</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.273541179529786</v>
+        <v>3.154700504764435</v>
       </c>
       <c r="C16">
-        <v>0.2669852879763823</v>
+        <v>0.428861274654281</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1133089502392135</v>
+        <v>0.03865055946112239</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002429292056483663</v>
+        <v>0.0007823673410149673</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2005767618066443</v>
+        <v>0.207077946728603</v>
       </c>
       <c r="M16">
-        <v>0.2688200107935401</v>
+        <v>0.5448416150731532</v>
       </c>
       <c r="N16">
-        <v>1.355174229674901</v>
+        <v>0.7166141040639218</v>
       </c>
       <c r="O16">
-        <v>2.802950197114995</v>
+        <v>1.872671005598619</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.235815983464761</v>
+        <v>3.022467954619344</v>
       </c>
       <c r="C17">
-        <v>0.2629563898316292</v>
+        <v>0.4165393727386686</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1136821167447559</v>
+        <v>0.03911000593281866</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002430368986956316</v>
+        <v>0.0007841349857480155</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1990711044923614</v>
+        <v>0.1998644056024972</v>
       </c>
       <c r="M17">
-        <v>0.2626777773741722</v>
+        <v>0.522280324209369</v>
       </c>
       <c r="N17">
-        <v>1.359804682265533</v>
+        <v>0.7264957738371152</v>
       </c>
       <c r="O17">
-        <v>2.803271275532779</v>
+        <v>1.830556800139846</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.214136411564198</v>
+        <v>2.946571178246586</v>
       </c>
       <c r="C18">
-        <v>0.2606346936558452</v>
+        <v>0.4094556241440159</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1139006103342819</v>
+        <v>0.03938072668834725</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002430997158295999</v>
+        <v>0.0007851585592968993</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1982139993191083</v>
+        <v>0.1957407725708151</v>
       </c>
       <c r="M18">
-        <v>0.2591521539384658</v>
+        <v>0.5093396417499108</v>
       </c>
       <c r="N18">
-        <v>1.3625220050492</v>
+        <v>0.7323169635550357</v>
       </c>
       <c r="O18">
-        <v>2.803644579461888</v>
+        <v>1.806927428670974</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.206799375051162</v>
+        <v>2.920900055105562</v>
       </c>
       <c r="C19">
-        <v>0.2598478591373521</v>
+        <v>0.4070577100453363</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1139752514225503</v>
+        <v>0.03947348724401056</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002431211350879032</v>
+        <v>0.000785506320460631</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1979253300763446</v>
+        <v>0.194348827210888</v>
       </c>
       <c r="M19">
-        <v>0.2579596856226942</v>
+        <v>0.5049640884757807</v>
       </c>
       <c r="N19">
-        <v>1.363451321428919</v>
+        <v>0.7343112011917157</v>
       </c>
       <c r="O19">
-        <v>2.803803351360216</v>
+        <v>1.79902640205529</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.239829941196206</v>
+        <v>3.036527490419758</v>
       </c>
       <c r="C20">
-        <v>0.2633857273017952</v>
+        <v>0.4178506812732223</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1136419933032196</v>
+        <v>0.03906042611369465</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002430253440962505</v>
+        <v>0.0007839461098260546</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1992304626299983</v>
+        <v>0.2006296419412905</v>
       </c>
       <c r="M20">
-        <v>0.2633308820888587</v>
+        <v>0.5246782315074583</v>
       </c>
       <c r="N20">
-        <v>1.359306173309896</v>
+        <v>0.7254295407037006</v>
       </c>
       <c r="O20">
-        <v>2.803217569252354</v>
+        <v>1.834977899582782</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.351031944962244</v>
+        <v>3.427025033402117</v>
       </c>
       <c r="C21">
-        <v>0.2752198262032266</v>
+        <v>0.4541611247678361</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1125683664818391</v>
+        <v>0.03775054717026194</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002427139387628537</v>
+        <v>0.0007787848436313213</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2037218479505611</v>
+        <v>0.2220448111815898</v>
       </c>
       <c r="M21">
-        <v>0.2814632674477195</v>
+        <v>0.5913631774289954</v>
       </c>
       <c r="N21">
-        <v>1.346024226628728</v>
+        <v>0.6972569411459233</v>
       </c>
       <c r="O21">
-        <v>2.803504556125148</v>
+        <v>1.963051649419043</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.423869449763401</v>
+        <v>3.683955693620192</v>
       </c>
       <c r="C22">
-        <v>0.2829141305697647</v>
+        <v>0.477941554107133</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1119009819407486</v>
+        <v>0.0369543728066084</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002425181659919049</v>
+        <v>0.0007754689307394784</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2067361823445566</v>
+        <v>0.2362948061306582</v>
       </c>
       <c r="M22">
-        <v>0.2933768415748048</v>
+        <v>0.6353227033471072</v>
       </c>
       <c r="N22">
-        <v>1.337824338327344</v>
+        <v>0.6801481001640184</v>
       </c>
       <c r="O22">
-        <v>2.805376185495902</v>
+        <v>2.052627520319049</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.384980411943559</v>
+        <v>3.546654836075618</v>
       </c>
       <c r="C23">
-        <v>0.2788112383298937</v>
+        <v>0.4652440215854199</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1122540428938752</v>
+        <v>0.03737370485337355</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002426219466156522</v>
+        <v>0.0007772336528374972</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2051201693937372</v>
+        <v>0.2286646779836161</v>
       </c>
       <c r="M23">
-        <v>0.2870126421134387</v>
+        <v>0.6118232999600295</v>
       </c>
       <c r="N23">
-        <v>1.342156809414824</v>
+        <v>0.6891561423811936</v>
       </c>
       <c r="O23">
-        <v>2.80422295875286</v>
+        <v>2.004252183385745</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.238015202324277</v>
+        <v>3.030170786617646</v>
       </c>
       <c r="C24">
-        <v>0.2631916407327424</v>
+        <v>0.417257838019168</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1136601207906116</v>
+        <v>0.03908282068421176</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002430305651385992</v>
+        <v>0.0007840314777424922</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1991583902819798</v>
+        <v>0.2002836056080923</v>
       </c>
       <c r="M24">
-        <v>0.2630355959008597</v>
+        <v>0.5235940444616389</v>
       </c>
       <c r="N24">
-        <v>1.359531377214225</v>
+        <v>0.7259111492214672</v>
       </c>
       <c r="O24">
-        <v>2.803241262079268</v>
+        <v>1.832977312042203</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.080218769427063</v>
+        <v>2.479026021117477</v>
       </c>
       <c r="C25">
-        <v>0.2461764113660934</v>
+        <v>0.3656213049927146</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.115324346733944</v>
+        <v>0.04117209656190735</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002435048025260371</v>
+        <v>0.0007916287182569502</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1930684540135132</v>
+        <v>0.1706273830446747</v>
       </c>
       <c r="M25">
-        <v>0.23744946110142</v>
+        <v>0.4297716771960935</v>
       </c>
       <c r="N25">
-        <v>1.380337790160809</v>
+        <v>0.770775294942851</v>
       </c>
       <c r="O25">
-        <v>2.809391237680074</v>
+        <v>1.670632895147833</v>
       </c>
     </row>
   </sheetData>
